--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="429">
   <si>
     <t>Family</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>st096374@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Александрова</t>
@@ -1308,9 +1311,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -1358,7 +1361,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1373,106 +1469,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -1481,6 +1477,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1507,31 +1510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,13 +1540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,13 +1552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,7 +1582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,19 +1594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,13 +1618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,7 +1642,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,42 +1684,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1760,17 +1763,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4" tint="0.399975585192419"/>
       </left>
       <right/>
@@ -1783,32 +1775,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1818,15 +1789,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,6 +1843,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1892,56 +1884,56 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1960,7 +1952,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1968,12 +1959,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2307,7 +2297,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2340,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:5">
+    <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2356,1853 +2346,2166 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="15.15" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="15.15" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="15.15" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" ht="15.15" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" ht="15.15" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" ht="15.15" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" ht="15.15" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="15.15" spans="1:5">
+        <v>98</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" ht="15.15" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" ht="15.15" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" ht="15.15" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" ht="15.15" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" ht="15.15" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" ht="15.15" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:6">
       <c r="A30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" ht="15.15" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A37" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A38" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A39" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F39" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A40" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" ht="15.15" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" ht="15.15" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:6">
       <c r="A42" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A43" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A45" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" ht="15.15" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" spans="1:6">
       <c r="A47" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A48" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A49" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F49" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A50" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" s="8"/>
+        <v>219</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A51" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" ht="15.15" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" spans="1:6">
       <c r="A52" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="8"/>
+        <v>231</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A54" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="8"/>
+        <v>235</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A55" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>239</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A56" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" ht="15.15" spans="1:5">
+        <v>243</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:6">
       <c r="A57" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:5">
+        <v>248</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:6">
       <c r="A58" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:6">
       <c r="A59" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" ht="15.15" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" spans="1:6">
       <c r="A60" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" ht="15.15" spans="1:5">
+        <v>260</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="1:6">
       <c r="A61" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E61" s="10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="62" ht="14.55" spans="1:5">
+      <c r="E61" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:6">
       <c r="A62" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="B62" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="8"/>
       <c r="D62" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" ht="15.15" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:6">
       <c r="A63" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" ht="15.15" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="1:6">
       <c r="A64" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" ht="15.15" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" ht="15.15" spans="1:6">
       <c r="A65" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="C65" s="8"/>
       <c r="D65" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" ht="15.15" spans="1:5">
+        <v>278</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" ht="15.15" spans="1:6">
       <c r="A66" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" ht="15.15" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" spans="1:6">
       <c r="A67" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A68" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F68" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A69" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D69" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" ht="15.15" spans="1:6">
+      <c r="A70" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" ht="15.15" spans="1:6">
+      <c r="A71" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" ht="15.15" spans="1:6">
+      <c r="A72" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" ht="15.15" spans="1:6">
+      <c r="A73" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" ht="15.15" spans="1:6">
+      <c r="A74" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" ht="15.15" spans="1:6">
+      <c r="A75" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" ht="15.15" spans="1:6">
+      <c r="A76" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:6">
+      <c r="A77" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" ht="15.15" spans="1:6">
+      <c r="A78" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" ht="15.15" spans="1:6">
+      <c r="A79" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:6">
+      <c r="A80" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" ht="15.15" spans="1:6">
+      <c r="A81" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" ht="15.15" spans="1:6">
+      <c r="A82" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" ht="15.15" spans="1:6">
+      <c r="A83" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" ht="15.15" spans="1:6">
+      <c r="A84" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" ht="15.15" spans="1:6">
+      <c r="A85" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" ht="15.15" spans="1:6">
+      <c r="A86" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" ht="15.15" spans="1:5">
-      <c r="A70" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" ht="15.15" spans="1:5">
-      <c r="A71" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" ht="15.15" spans="1:5">
-      <c r="A72" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" ht="15.15" spans="1:5">
-      <c r="A73" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" ht="15.15" spans="1:5">
-      <c r="A74" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" ht="15.15" spans="1:5">
-      <c r="A75" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" ht="15.15" spans="1:5">
-      <c r="A76" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="77" ht="15.15" spans="1:5">
-      <c r="A77" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" ht="15.15" spans="1:5">
-      <c r="A78" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" ht="15.15" spans="1:5">
-      <c r="A79" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" ht="15.15" spans="1:5">
-      <c r="A80" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="81" ht="15.15" spans="1:5">
-      <c r="A81" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="82" ht="15.15" spans="1:5">
-      <c r="A82" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="83" ht="15.15" spans="1:5">
-      <c r="A83" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" ht="15.15" spans="1:5">
-      <c r="A84" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="85" ht="15.15" spans="1:5">
-      <c r="A85" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" ht="15.15" spans="1:5">
-      <c r="A86" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="D86" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="87" ht="15.15" spans="1:5">
+        <v>353</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" ht="15.15" spans="1:6">
       <c r="A87" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" ht="15.15" spans="1:5">
+        <v>356</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" ht="15.15" spans="1:6">
       <c r="A88" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="89" ht="15.15" spans="1:5">
+        <v>360</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" ht="15.15" spans="1:6">
       <c r="A89" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" ht="15.15" spans="1:5">
+        <v>363</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" ht="15.15" spans="1:6">
       <c r="A90" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="91" ht="15.15" spans="1:5">
+        <v>366</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:6">
       <c r="A91" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" ht="15.15" spans="1:5">
+        <v>369</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:6">
       <c r="A92" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="C92" s="8"/>
       <c r="D92" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="93" ht="15.15" spans="1:5">
+        <v>372</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:6">
       <c r="A93" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="94" ht="15.15" spans="1:5">
+        <v>375</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="15.15" spans="1:6">
       <c r="A94" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" ht="15.15" spans="1:5">
+        <v>378</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" ht="15.15" spans="1:6">
       <c r="A95" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="96" ht="15.15" spans="1:5">
+        <v>383</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" ht="15.15" spans="1:6">
       <c r="A96" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="15.15" spans="1:6">
       <c r="A97" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" ht="15.15" spans="1:5">
+        <v>390</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" ht="15.15" spans="1:6">
       <c r="A98" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="99" ht="15.15" spans="1:5">
+        <v>393</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" ht="15.15" spans="1:6">
       <c r="A99" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" ht="15.15" spans="1:5">
+        <v>397</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" ht="15.15" spans="1:6">
       <c r="A100" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" ht="15.15" spans="1:5">
+        <v>401</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" ht="15.15" spans="1:6">
       <c r="A101" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" ht="15.15" spans="1:5">
+        <v>404</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" ht="15.15" spans="1:6">
       <c r="A102" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="103" ht="15.15" spans="1:5">
+        <v>407</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" ht="15.15" spans="1:6">
       <c r="A103" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="104" ht="15.15" spans="1:5">
+        <v>412</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" ht="15.15" spans="1:6">
       <c r="A104" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="105" ht="15.15" spans="1:5">
+        <v>416</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" ht="15.15" spans="1:6">
       <c r="A105" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="106" ht="15.15" spans="1:5">
+        <v>419</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" ht="15.15" spans="1:6">
       <c r="A106" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" ht="15.15" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" ht="15.15" spans="1:6">
       <c r="A107" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="108" ht="15.15" spans="1:5">
+        <v>424</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" ht="15.15" spans="1:6">
       <c r="A108" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" ht="15.15" spans="1:5">
+        <v>222</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" ht="15.15" spans="1:6">
       <c r="A109" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-    </row>
-    <row r="110" ht="15.15" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="15.15" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" ht="16.8" spans="4:5">
-      <c r="D114" s="13"/>
-      <c r="E114" s="14"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="15"/>
+      <c r="E115" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F115">

--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="433">
   <si>
     <t>Family</t>
   </si>
@@ -1304,6 +1304,18 @@
   </si>
   <si>
     <t>Куликова</t>
+  </si>
+  <si>
+    <t>Усачева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марья </t>
+  </si>
+  <si>
+    <t>st087842</t>
+  </si>
+  <si>
+    <t>st087842@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -1312,11 +1324,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,6 +1356,12 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF5B5FC7"/>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1374,9 +1392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1384,14 +1401,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -1408,7 +1417,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1416,7 +1433,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1430,17 +1455,17 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1454,7 +1479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1481,13 +1506,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1510,7 +1528,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,25 +1576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,19 +1588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,37 +1624,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1660,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,55 +1690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,18 +1795,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1797,18 +1823,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1828,21 +1843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1854,6 +1854,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,56 +1902,56 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1960,10 +1978,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2295,9 +2314,9 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4500,12 +4519,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="114" ht="16.8" spans="4:5">
-      <c r="D114" s="11"/>
-      <c r="E114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="13"/>
+      <c r="E115" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F115">

--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="437">
   <si>
     <t>Family</t>
   </si>
@@ -1316,6 +1316,18 @@
   </si>
   <si>
     <t>st087842@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Паршина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юлия </t>
+  </si>
+  <si>
+    <t>st068842</t>
+  </si>
+  <si>
+    <t>st068842@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1364,12 +1376,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1378,30 +1384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <sz val="10.5"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1415,9 +1405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1426,6 +1415,13 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1442,6 +1438,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1472,7 +1475,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1488,20 +1514,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1528,7 +1540,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,7 +1576,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,37 +1606,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,13 +1678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,49 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,43 +1714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,17 +1816,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,8 +1828,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1891,67 +1897,73 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1978,11 +1990,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2316,7 +2330,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4499,7 +4513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" ht="15.15" spans="1:6">
+    <row r="110" spans="1:6">
       <c r="A110" s="7" t="s">
         <v>428</v>
       </c>
@@ -4532,19 +4546,39 @@
       <c r="D111" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="12" t="s">
         <v>432</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="112" ht="16.8" spans="1:6">
+      <c r="A112" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="114" ht="16.8" spans="4:5">
-      <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="14"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="14"/>
+      <c r="E115" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F115">
@@ -4555,6 +4589,8 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E61" r:id="rId1" display="st060046@student.spbu.ru" tooltip="mailto:st060046@student.spbu.ru"/>
+    <hyperlink ref="E111" r:id="rId2" display="st087842@student.spbu.ru"/>
+    <hyperlink ref="E112" r:id="rId3" display="st068842@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>

--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$F$112</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="439">
   <si>
     <t>Family</t>
   </si>
@@ -52,495 +52,495 @@
     <t>st096374@student.spbu.ru</t>
   </si>
   <si>
+    <t>Александрова</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>st096305</t>
+  </si>
+  <si>
+    <t>st096305@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Аношкина</t>
+  </si>
+  <si>
+    <t>Лидия</t>
+  </si>
+  <si>
+    <t>Дмитриевна</t>
+  </si>
+  <si>
+    <t>st094433</t>
+  </si>
+  <si>
+    <t>st094433@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Артынюк</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Валерьевна</t>
+  </si>
+  <si>
+    <t>st094428</t>
+  </si>
+  <si>
+    <t>st094428@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бакулина</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>st096709</t>
+  </si>
+  <si>
+    <t>st096709@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>st096375</t>
+  </si>
+  <si>
+    <t>st096375@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бикташева</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Олеговна</t>
+  </si>
+  <si>
+    <t>st068724</t>
+  </si>
+  <si>
+    <t>st068724@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бобошко</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>st101664</t>
+  </si>
+  <si>
+    <t>st101664@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Богданов</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Русланович</t>
+  </si>
+  <si>
+    <t>st096431</t>
+  </si>
+  <si>
+    <t>st096431@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Бухарова</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>st096499</t>
+  </si>
+  <si>
+    <t>st096499@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Валерьянова</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>st094436</t>
+  </si>
+  <si>
+    <t>st094436@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Васильева</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Владиславовна</t>
+  </si>
+  <si>
+    <t>st096298</t>
+  </si>
+  <si>
+    <t>st096298@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Васькин</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>st096353</t>
+  </si>
+  <si>
+    <t>st096353@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Вахабзаде</t>
+  </si>
+  <si>
+    <t>Чингиз</t>
+  </si>
+  <si>
+    <t>Икмет оглы</t>
+  </si>
+  <si>
+    <t>st096639</t>
+  </si>
+  <si>
+    <t>st096639@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Вилис</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>st096352</t>
+  </si>
+  <si>
+    <t>st096352@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Вингерт</t>
+  </si>
+  <si>
+    <t>Диана</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>st101474</t>
+  </si>
+  <si>
+    <t>st101474@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Виноградова</t>
+  </si>
+  <si>
+    <t>st101566</t>
+  </si>
+  <si>
+    <t>st101566@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Воинков</t>
+  </si>
+  <si>
+    <t>Святослав</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t>st096595</t>
+  </si>
+  <si>
+    <t>st096595@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Волков</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Вячеславович</t>
+  </si>
+  <si>
+    <t>st096430</t>
+  </si>
+  <si>
+    <t>st096430@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Гончарова</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>st101515</t>
+  </si>
+  <si>
+    <t>st101515@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Горбовцева</t>
+  </si>
+  <si>
+    <t>Геннадьевна</t>
+  </si>
+  <si>
+    <t>st101478</t>
+  </si>
+  <si>
+    <t>st101478@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Грибанова</t>
+  </si>
+  <si>
+    <t>st096357</t>
+  </si>
+  <si>
+    <t>st096357@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Грудкова</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Максимовна</t>
+  </si>
+  <si>
+    <t>st101672</t>
+  </si>
+  <si>
+    <t>st101672@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Гулина</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>st101517</t>
+  </si>
+  <si>
+    <t>st101517@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Давыдова</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>st000000</t>
+  </si>
+  <si>
+    <t>st000000@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Дудина</t>
+  </si>
+  <si>
+    <t>Валентина</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
+    <t>st101565</t>
+  </si>
+  <si>
+    <t>st101565@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Дьяконова</t>
+  </si>
+  <si>
+    <t>Алла</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>st096437</t>
+  </si>
+  <si>
+    <t>st096437@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Ефременкова</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>st096616</t>
+  </si>
+  <si>
+    <t>st096616@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Жаркина</t>
+  </si>
+  <si>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>Ивановна</t>
+  </si>
+  <si>
+    <t>st101481</t>
+  </si>
+  <si>
+    <t>st101481@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Жданова</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>st101569</t>
+  </si>
+  <si>
+    <t>st101569@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Жиляева</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>st101561</t>
+  </si>
+  <si>
+    <t>st101561@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>st094429</t>
+  </si>
+  <si>
+    <t>st094429@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зубова</t>
+  </si>
+  <si>
+    <t>st101671</t>
+  </si>
+  <si>
+    <t>st101671@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зуева</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>st094438</t>
+  </si>
+  <si>
+    <t>st094438@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зырянова</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>st096654</t>
+  </si>
+  <si>
+    <t>st096654@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Ибрагимова</t>
+  </si>
+  <si>
+    <t>Ильфатовна</t>
+  </si>
+  <si>
+    <t>st096434</t>
+  </si>
+  <si>
+    <t>st096434@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>st094432</t>
+  </si>
+  <si>
+    <t>st094432@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Измаилова</t>
+  </si>
+  <si>
+    <t>Зари</t>
+  </si>
+  <si>
+    <t>Мурадисовна</t>
+  </si>
+  <si>
+    <t>st088302</t>
+  </si>
+  <si>
+    <t>st088302@student.spbu.ru</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Александрова</t>
-  </si>
-  <si>
-    <t>Полина</t>
-  </si>
-  <si>
-    <t>Николаевна</t>
-  </si>
-  <si>
-    <t>st096305</t>
-  </si>
-  <si>
-    <t>st096305@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Аношкина</t>
-  </si>
-  <si>
-    <t>Лидия</t>
-  </si>
-  <si>
-    <t>Дмитриевна</t>
-  </si>
-  <si>
-    <t>st094433</t>
-  </si>
-  <si>
-    <t>st094433@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Артынюк</t>
-  </si>
-  <si>
-    <t>Александра</t>
-  </si>
-  <si>
-    <t>Валерьевна</t>
-  </si>
-  <si>
-    <t>st094428</t>
-  </si>
-  <si>
-    <t>st094428@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Бакулина</t>
-  </si>
-  <si>
-    <t>Ольга</t>
-  </si>
-  <si>
-    <t>Андреевна</t>
-  </si>
-  <si>
-    <t>st096709</t>
-  </si>
-  <si>
-    <t>st096709@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Борис</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>st096375</t>
-  </si>
-  <si>
-    <t>st096375@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Бикташева</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>Олеговна</t>
-  </si>
-  <si>
-    <t>st068724</t>
-  </si>
-  <si>
-    <t>st068724@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Бобошко</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>st101664</t>
-  </si>
-  <si>
-    <t>st101664@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Богданов</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Русланович</t>
-  </si>
-  <si>
-    <t>st096431</t>
-  </si>
-  <si>
-    <t>st096431@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Бухарова</t>
-  </si>
-  <si>
-    <t>Марина</t>
-  </si>
-  <si>
-    <t>st096499</t>
-  </si>
-  <si>
-    <t>st096499@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Валерьянова</t>
-  </si>
-  <si>
-    <t>Александровна</t>
-  </si>
-  <si>
-    <t>st094436</t>
-  </si>
-  <si>
-    <t>st094436@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Васильева</t>
-  </si>
-  <si>
-    <t>Алиса</t>
-  </si>
-  <si>
-    <t>Владиславовна</t>
-  </si>
-  <si>
-    <t>st096298</t>
-  </si>
-  <si>
-    <t>st096298@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Васькин</t>
-  </si>
-  <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>st096353</t>
-  </si>
-  <si>
-    <t>st096353@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Вахабзаде</t>
-  </si>
-  <si>
-    <t>Чингиз</t>
-  </si>
-  <si>
-    <t>Икмет оглы</t>
-  </si>
-  <si>
-    <t>st096639</t>
-  </si>
-  <si>
-    <t>st096639@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Вилис</t>
-  </si>
-  <si>
-    <t>Сергеевна</t>
-  </si>
-  <si>
-    <t>st096352</t>
-  </si>
-  <si>
-    <t>st096352@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Вингерт</t>
-  </si>
-  <si>
-    <t>Диана</t>
-  </si>
-  <si>
-    <t>Павловна</t>
-  </si>
-  <si>
-    <t>st101474</t>
-  </si>
-  <si>
-    <t>st101474@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Виноградова</t>
-  </si>
-  <si>
-    <t>st101566</t>
-  </si>
-  <si>
-    <t>st101566@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Воинков</t>
-  </si>
-  <si>
-    <t>Святослав</t>
-  </si>
-  <si>
-    <t>Дмитриевич</t>
-  </si>
-  <si>
-    <t>st096595</t>
-  </si>
-  <si>
-    <t>st096595@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Волков</t>
-  </si>
-  <si>
-    <t>Владислав</t>
-  </si>
-  <si>
-    <t>Вячеславович</t>
-  </si>
-  <si>
-    <t>st096430</t>
-  </si>
-  <si>
-    <t>st096430@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Гончарова</t>
-  </si>
-  <si>
-    <t>Викторовна</t>
-  </si>
-  <si>
-    <t>st101515</t>
-  </si>
-  <si>
-    <t>st101515@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Горбовцева</t>
-  </si>
-  <si>
-    <t>Геннадьевна</t>
-  </si>
-  <si>
-    <t>st101478</t>
-  </si>
-  <si>
-    <t>st101478@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Грибанова</t>
-  </si>
-  <si>
-    <t>st096357</t>
-  </si>
-  <si>
-    <t>st096357@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Грудкова</t>
-  </si>
-  <si>
-    <t>Дарья</t>
-  </si>
-  <si>
-    <t>Максимовна</t>
-  </si>
-  <si>
-    <t>st101672</t>
-  </si>
-  <si>
-    <t>st101672@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Гулина</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>st101517</t>
-  </si>
-  <si>
-    <t>st101517@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Давыдова</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>st000000</t>
-  </si>
-  <si>
-    <t>st000000@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Дудина</t>
-  </si>
-  <si>
-    <t>Валентина</t>
-  </si>
-  <si>
-    <t>Алексеевна</t>
-  </si>
-  <si>
-    <t>st101565</t>
-  </si>
-  <si>
-    <t>st101565@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Дьяконова</t>
-  </si>
-  <si>
-    <t>Алла</t>
-  </si>
-  <si>
-    <t>Владимировна</t>
-  </si>
-  <si>
-    <t>st096437</t>
-  </si>
-  <si>
-    <t>st096437@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Ефременкова</t>
-  </si>
-  <si>
-    <t>Юлия</t>
-  </si>
-  <si>
-    <t>st096616</t>
-  </si>
-  <si>
-    <t>st096616@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Жаркина</t>
-  </si>
-  <si>
-    <t>Софья</t>
-  </si>
-  <si>
-    <t>Ивановна</t>
-  </si>
-  <si>
-    <t>st101481</t>
-  </si>
-  <si>
-    <t>st101481@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Жданова</t>
-  </si>
-  <si>
-    <t>Игоревна</t>
-  </si>
-  <si>
-    <t>st101569</t>
-  </si>
-  <si>
-    <t>st101569@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Жиляева</t>
-  </si>
-  <si>
-    <t>Валерия</t>
-  </si>
-  <si>
-    <t>Юрьевна</t>
-  </si>
-  <si>
-    <t>st101561</t>
-  </si>
-  <si>
-    <t>st101561@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t>st094429</t>
-  </si>
-  <si>
-    <t>st094429@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Зубова</t>
-  </si>
-  <si>
-    <t>st101671</t>
-  </si>
-  <si>
-    <t>st101671@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Зуева</t>
-  </si>
-  <si>
-    <t>Яна</t>
-  </si>
-  <si>
-    <t>st094438</t>
-  </si>
-  <si>
-    <t>st094438@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Зырянова</t>
-  </si>
-  <si>
-    <t>Светлана</t>
-  </si>
-  <si>
-    <t>st096654</t>
-  </si>
-  <si>
-    <t>st096654@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Ибрагимова</t>
-  </si>
-  <si>
-    <t>Ильфатовна</t>
-  </si>
-  <si>
-    <t>st096434</t>
-  </si>
-  <si>
-    <t>st096434@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Иванова</t>
-  </si>
-  <si>
-    <t>Ксения</t>
-  </si>
-  <si>
-    <t>st094432</t>
-  </si>
-  <si>
-    <t>st094432@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>Измаилова</t>
-  </si>
-  <si>
-    <t>Зари</t>
-  </si>
-  <si>
-    <t>Мурадисовна</t>
-  </si>
-  <si>
-    <t>st088302</t>
-  </si>
-  <si>
-    <t>st088302@student.spbu.ru</t>
-  </si>
-  <si>
     <t>Кадысева</t>
   </si>
   <si>
@@ -1301,6 +1301,12 @@
   </si>
   <si>
     <t>Джеус</t>
+  </si>
+  <si>
+    <t>st113671</t>
+  </si>
+  <si>
+    <t>st113671@student.spbu.ru</t>
   </si>
   <si>
     <t>Куликова</t>
@@ -1336,11 +1342,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,9 +1368,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1376,20 +1397,73 @@
       <charset val="204"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1405,28 +1479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1435,27 +1487,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
     </font>
     <font>
       <i/>
@@ -1467,15 +1503,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1490,36 +1519,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,91 +1547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,7 +1565,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1667,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,60 +1715,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1792,15 +1799,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1816,24 +1843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1845,6 +1854,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,8 +1891,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,94 +1900,64 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1982,21 +1976,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2325,15 +2320,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.1759259259259" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
@@ -2341,6 +2336,7 @@
     <col min="4" max="4" width="8.81481481481481" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.4537037037037" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.9074074074074" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:6">
@@ -2363,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:6">
+    <row r="2" ht="15.15" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2379,749 +2375,786 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="8">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="15.15" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:7">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="15.15" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="15.15" spans="1:7">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="15.15" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="15.15" spans="1:7">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:7">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:7">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="8">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="15.15" spans="1:7">
+      <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="15.15" spans="1:7">
+      <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="15.15" spans="1:7">
+      <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="8">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="15.15" spans="1:7">
+      <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="15.15" spans="1:7">
+      <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:7">
+      <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" ht="15.15" spans="1:7">
+      <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="15.15" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="8">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" ht="15.15" spans="1:7">
+      <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="15.15" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="8">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" ht="15.15" spans="1:7">
+      <c r="A19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="15.15" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="8">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="15.15" spans="1:7">
+      <c r="A21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="15.15" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="8">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="15.15" spans="1:7">
+      <c r="A22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="15.15" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="8">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="15.15" spans="1:7">
+      <c r="A23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="15.15" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" ht="15.15" spans="1:7">
+      <c r="A24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:6">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="8">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" ht="15.15" spans="1:7">
+      <c r="A26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="15.15" spans="1:6">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="15.15" spans="1:7">
+      <c r="A27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="15.15" spans="1:6">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="8">
+        <v>4</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="15.15" spans="1:7">
+      <c r="A28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="15.15" spans="1:6">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" ht="15.15" spans="1:7">
+      <c r="A29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="15.15" spans="1:6">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="15.15" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="15.15" spans="1:6">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" ht="15.15" spans="1:7">
+      <c r="A32" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="15.15" spans="1:6">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="8">
+        <v>4</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A35" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="8">
+        <v>4</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A36" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="8">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A37" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="8">
+        <v>4</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="15.15" spans="1:7">
+      <c r="A38" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="15.15" spans="1:6">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F38" s="8">
+        <v>3</v>
+      </c>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="15.15" spans="1:6">
       <c r="A39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15.15" spans="1:6">
+    </row>
+    <row r="40" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A40" s="7" t="s">
         <v>174</v>
       </c>
@@ -3129,7 +3162,7 @@
         <v>175</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>176</v>
@@ -3137,19 +3170,20 @@
       <c r="E40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" ht="15.15" spans="1:6">
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" ht="15.15" spans="1:7">
       <c r="A41" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>179</v>
@@ -3157,11 +3191,12 @@
       <c r="E41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" ht="15.15" spans="1:6">
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" ht="15.15" spans="1:7">
       <c r="A42" s="7" t="s">
         <v>181</v>
       </c>
@@ -3177,16 +3212,17 @@
       <c r="E42" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F42" s="8">
+        <v>3</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A43" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>187</v>
@@ -3197,11 +3233,12 @@
       <c r="E43" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F43" s="8">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A44" s="7" t="s">
         <v>190</v>
       </c>
@@ -3217,11 +3254,12 @@
       <c r="E44" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F44" s="8">
+        <v>3</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A45" s="7" t="s">
         <v>195</v>
       </c>
@@ -3237,16 +3275,17 @@
       <c r="E45" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F45" s="8">
+        <v>7</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A46" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>201</v>
@@ -3257,11 +3296,12 @@
       <c r="E46" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" ht="15.15" spans="1:6">
+      <c r="F46" s="8">
+        <v>4</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" ht="15.15" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>204</v>
       </c>
@@ -3269,7 +3309,7 @@
         <v>205</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>206</v>
@@ -3277,16 +3317,17 @@
       <c r="E47" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F47" s="8">
+        <v>3</v>
+      </c>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A48" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>187</v>
@@ -3297,11 +3338,12 @@
       <c r="E48" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F48" s="8">
+        <v>3</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A49" s="7" t="s">
         <v>211</v>
       </c>
@@ -3309,7 +3351,7 @@
         <v>212</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>213</v>
@@ -3317,11 +3359,12 @@
       <c r="E49" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F49" s="8">
+        <v>4</v>
+      </c>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A50" s="7" t="s">
         <v>215</v>
       </c>
@@ -3337,11 +3380,12 @@
       <c r="E50" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F50" s="8">
+        <v>2</v>
+      </c>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A51" s="7" t="s">
         <v>220</v>
       </c>
@@ -3357,19 +3401,20 @@
       <c r="E51" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="15.15" spans="1:6">
+      <c r="F51" s="8">
+        <v>2</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" ht="15.15" spans="1:7">
       <c r="A52" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>226</v>
@@ -3377,11 +3422,12 @@
       <c r="E52" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F52" s="8">
+        <v>3</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A53" s="7" t="s">
         <v>228</v>
       </c>
@@ -3389,7 +3435,7 @@
         <v>229</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>230</v>
@@ -3397,11 +3443,12 @@
       <c r="E53" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F53" s="8">
+        <v>4</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A54" s="7" t="s">
         <v>232</v>
       </c>
@@ -3409,7 +3456,7 @@
         <v>233</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>234</v>
@@ -3417,16 +3464,17 @@
       <c r="E54" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F54" s="8">
+        <v>7</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A55" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>237</v>
@@ -3437,11 +3485,12 @@
       <c r="E55" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A56" s="7" t="s">
         <v>240</v>
       </c>
@@ -3457,11 +3506,12 @@
       <c r="E56" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" ht="15.15" spans="1:6">
+      <c r="F56" s="8">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" ht="15.15" spans="1:7">
       <c r="A57" s="7" t="s">
         <v>244</v>
       </c>
@@ -3477,11 +3527,12 @@
       <c r="E57" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:6">
+      <c r="F57" s="8">
+        <v>3</v>
+      </c>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" ht="15.15" spans="1:7">
       <c r="A58" s="7" t="s">
         <v>249</v>
       </c>
@@ -3497,19 +3548,20 @@
       <c r="E58" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:6">
+      <c r="F58" s="8">
+        <v>7</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" ht="15.15" spans="1:7">
       <c r="A59" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>255</v>
@@ -3517,11 +3569,12 @@
       <c r="E59" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" ht="15.15" spans="1:6">
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="15.15" spans="1:7">
       <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
@@ -3529,7 +3582,7 @@
         <v>258</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>259</v>
@@ -3537,16 +3590,17 @@
       <c r="E60" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" ht="15.15" spans="1:6">
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" ht="15.15" spans="1:7">
       <c r="A61" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>262</v>
@@ -3554,37 +3608,39 @@
       <c r="D61" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:6">
+      <c r="F61" s="8">
+        <v>1</v>
+      </c>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" ht="15.15" spans="1:7">
       <c r="A62" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="7" t="s">
         <v>267</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" ht="15.15" spans="1:6">
+      <c r="F62" s="8">
+        <v>4</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" ht="15.15" spans="1:7">
       <c r="A63" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>183</v>
@@ -3595,16 +3651,17 @@
       <c r="E63" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" ht="15.15" spans="1:6">
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" ht="15.15" spans="1:7">
       <c r="A64" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>273</v>
@@ -3615,37 +3672,39 @@
       <c r="E64" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" ht="15.15" spans="1:6">
+      <c r="F64" s="8">
+        <v>5</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" ht="15.15" spans="1:7">
       <c r="A65" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="C65" s="9"/>
       <c r="D65" s="7" t="s">
         <v>277</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" ht="15.15" spans="1:6">
+      <c r="F65" s="8">
+        <v>6</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" ht="15.15" spans="1:7">
       <c r="A66" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>280</v>
@@ -3653,16 +3712,17 @@
       <c r="E66" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" ht="15.15" spans="1:6">
+      <c r="F66" s="8">
+        <v>5</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" ht="15.15" spans="1:7">
       <c r="A67" s="7" t="s">
         <v>282</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>283</v>
@@ -3673,11 +3733,12 @@
       <c r="E67" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F67" s="8">
+        <v>6</v>
+      </c>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A68" s="7" t="s">
         <v>286</v>
       </c>
@@ -3685,7 +3746,7 @@
         <v>287</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>288</v>
@@ -3693,11 +3754,12 @@
       <c r="E68" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="15.15" spans="1:6">
+      <c r="F68" s="8">
+        <v>6</v>
+      </c>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="15.15" spans="1:7">
       <c r="A69" s="7" t="s">
         <v>290</v>
       </c>
@@ -3713,11 +3775,12 @@
       <c r="E69" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" ht="15.15" spans="1:6">
+      <c r="F69" s="8">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" ht="15.15" spans="1:7">
       <c r="A70" s="7" t="s">
         <v>295</v>
       </c>
@@ -3733,16 +3796,17 @@
       <c r="E70" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" ht="15.15" spans="1:6">
+      <c r="F70" s="8">
+        <v>5</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="15.15" spans="1:7">
       <c r="A71" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>300</v>
@@ -3753,19 +3817,20 @@
       <c r="E71" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" ht="15.15" spans="1:6">
+      <c r="F71" s="8">
+        <v>6</v>
+      </c>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" ht="15.15" spans="1:7">
       <c r="A72" s="7" t="s">
         <v>303</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>304</v>
@@ -3773,11 +3838,12 @@
       <c r="E72" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" ht="15.15" spans="1:6">
+      <c r="F72" s="8">
+        <v>5</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" ht="15.15" spans="1:7">
       <c r="A73" s="7" t="s">
         <v>250</v>
       </c>
@@ -3793,11 +3859,12 @@
       <c r="E73" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" ht="15.15" spans="1:6">
+      <c r="F73" s="8">
+        <v>6</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" ht="15.15" spans="1:7">
       <c r="A74" s="7" t="s">
         <v>308</v>
       </c>
@@ -3805,7 +3872,7 @@
         <v>309</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>310</v>
@@ -3813,11 +3880,12 @@
       <c r="E74" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" ht="15.15" spans="1:6">
+      <c r="F74" s="8">
+        <v>6</v>
+      </c>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" ht="15.15" spans="1:7">
       <c r="A75" s="7" t="s">
         <v>312</v>
       </c>
@@ -3833,19 +3901,20 @@
       <c r="E75" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" ht="15.15" spans="1:6">
+      <c r="F75" s="8">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" ht="15.15" spans="1:7">
       <c r="A76" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>316</v>
@@ -3853,11 +3922,12 @@
       <c r="E76" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" ht="15.15" spans="1:6">
+      <c r="F76" s="8">
+        <v>6</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" ht="15.15" spans="1:7">
       <c r="A77" s="7" t="s">
         <v>318</v>
       </c>
@@ -3865,7 +3935,7 @@
         <v>319</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>320</v>
@@ -3873,19 +3943,20 @@
       <c r="E77" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" ht="15.15" spans="1:6">
+      <c r="F77" s="8">
+        <v>7</v>
+      </c>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" ht="15.15" spans="1:7">
       <c r="A78" s="7" t="s">
         <v>322</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>323</v>
@@ -3893,9 +3964,10 @@
       <c r="E78" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F78" s="8">
+        <v>5</v>
+      </c>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" ht="15.15" spans="1:6">
       <c r="A79" s="7" t="s">
@@ -3904,26 +3976,26 @@
       <c r="B79" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C79" s="8"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="7" t="s">
         <v>327</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" ht="15.15" spans="1:6">
+      <c r="F79" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:7">
       <c r="A80" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>330</v>
@@ -3931,11 +4003,12 @@
       <c r="E80" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" ht="15.15" spans="1:6">
+      <c r="F80" s="8">
+        <v>7</v>
+      </c>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" ht="15.15" spans="1:7">
       <c r="A81" s="7" t="s">
         <v>332</v>
       </c>
@@ -3951,11 +4024,12 @@
       <c r="E81" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" ht="15.15" spans="1:6">
+      <c r="F81" s="8">
+        <v>5</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" ht="15.15" spans="1:7">
       <c r="A82" s="7" t="s">
         <v>337</v>
       </c>
@@ -3963,7 +4037,7 @@
         <v>338</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>339</v>
@@ -3971,19 +4045,20 @@
       <c r="E82" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" ht="15.15" spans="1:6">
+      <c r="F82" s="8">
+        <v>5</v>
+      </c>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" ht="15.15" spans="1:7">
       <c r="A83" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>342</v>
@@ -3991,16 +4066,17 @@
       <c r="E83" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" ht="15.15" spans="1:6">
+      <c r="F83" s="8">
+        <v>5</v>
+      </c>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" ht="15.15" spans="1:7">
       <c r="A84" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>345</v>
@@ -4011,19 +4087,20 @@
       <c r="E84" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" ht="15.15" spans="1:6">
+      <c r="F84" s="8">
+        <v>5</v>
+      </c>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" ht="15.15" spans="1:7">
       <c r="A85" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>349</v>
@@ -4031,16 +4108,17 @@
       <c r="E85" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" ht="15.15" spans="1:6">
+      <c r="F85" s="8">
+        <v>4</v>
+      </c>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" ht="15.15" spans="1:7">
       <c r="A86" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>292</v>
@@ -4051,19 +4129,20 @@
       <c r="E86" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" ht="15.15" spans="1:6">
+      <c r="F86" s="8">
+        <v>5</v>
+      </c>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" ht="15.15" spans="1:7">
       <c r="A87" s="7" t="s">
         <v>354</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>355</v>
@@ -4071,11 +4150,12 @@
       <c r="E87" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" ht="15.15" spans="1:6">
+      <c r="F87" s="8">
+        <v>1</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" ht="15.15" spans="1:7">
       <c r="A88" s="7" t="s">
         <v>357</v>
       </c>
@@ -4091,19 +4171,20 @@
       <c r="E88" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" ht="15.15" spans="1:6">
+      <c r="F88" s="8">
+        <v>7</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" ht="15.15" spans="1:7">
       <c r="A89" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>362</v>
@@ -4111,11 +4192,12 @@
       <c r="E89" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" ht="15.15" spans="1:6">
+      <c r="F89" s="8">
+        <v>6</v>
+      </c>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" ht="15.15" spans="1:7">
       <c r="A90" s="7" t="s">
         <v>364</v>
       </c>
@@ -4123,7 +4205,7 @@
         <v>229</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>365</v>
@@ -4131,19 +4213,20 @@
       <c r="E90" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" ht="15.15" spans="1:6">
+      <c r="F90" s="8">
+        <v>1</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" ht="15.15" spans="1:7">
       <c r="A91" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>368</v>
@@ -4151,37 +4234,39 @@
       <c r="E91" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" ht="15.15" spans="1:6">
+      <c r="F91" s="8">
+        <v>5</v>
+      </c>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" ht="15.15" spans="1:7">
       <c r="A92" s="7" t="s">
         <v>370</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="C92" s="9"/>
       <c r="D92" s="7" t="s">
         <v>371</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" ht="15.15" spans="1:6">
+      <c r="F92" s="8">
+        <v>7</v>
+      </c>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" ht="15.15" spans="1:7">
       <c r="A93" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>374</v>
@@ -4189,19 +4274,20 @@
       <c r="E93" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" ht="15.15" spans="1:6">
+      <c r="F93" s="8">
+        <v>1</v>
+      </c>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" ht="15.15" spans="1:7">
       <c r="A94" s="7" t="s">
         <v>376</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>377</v>
@@ -4209,11 +4295,12 @@
       <c r="E94" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" ht="15.15" spans="1:6">
+      <c r="F94" s="8">
+        <v>1</v>
+      </c>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" ht="15.15" spans="1:7">
       <c r="A95" s="7" t="s">
         <v>379</v>
       </c>
@@ -4229,11 +4316,12 @@
       <c r="E95" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" ht="15.15" spans="1:6">
+      <c r="F95" s="8">
+        <v>1</v>
+      </c>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" ht="15.15" spans="1:7">
       <c r="A96" s="7" t="s">
         <v>384</v>
       </c>
@@ -4241,7 +4329,7 @@
         <v>287</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>385</v>
@@ -4249,11 +4337,12 @@
       <c r="E96" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" ht="15.15" spans="1:6">
+      <c r="F96" s="8">
+        <v>2</v>
+      </c>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" ht="15.15" spans="1:7">
       <c r="A97" s="7" t="s">
         <v>387</v>
       </c>
@@ -4269,19 +4358,20 @@
       <c r="E97" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" ht="15.15" spans="1:6">
+      <c r="F97" s="8">
+        <v>2</v>
+      </c>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" ht="15.15" spans="1:7">
       <c r="A98" s="7" t="s">
         <v>391</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>392</v>
@@ -4289,11 +4379,12 @@
       <c r="E98" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" ht="15.15" spans="1:6">
+      <c r="F98" s="8">
+        <v>2</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" ht="15.15" spans="1:7">
       <c r="A99" s="7" t="s">
         <v>394</v>
       </c>
@@ -4301,7 +4392,7 @@
         <v>395</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>396</v>
@@ -4309,11 +4400,12 @@
       <c r="E99" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="15.15" spans="1:6">
+      <c r="F99" s="8">
+        <v>4</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" ht="15.15" spans="1:7">
       <c r="A100" s="7" t="s">
         <v>398</v>
       </c>
@@ -4329,11 +4421,12 @@
       <c r="E100" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" ht="15.15" spans="1:6">
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" ht="15.15" spans="1:7">
       <c r="A101" s="7" t="s">
         <v>402</v>
       </c>
@@ -4349,19 +4442,20 @@
       <c r="E101" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" ht="15.15" spans="1:6">
+      <c r="F101" s="8">
+        <v>2</v>
+      </c>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" ht="15.15" spans="1:7">
       <c r="A102" s="7" t="s">
         <v>405</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>406</v>
@@ -4369,11 +4463,12 @@
       <c r="E102" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" ht="15.15" spans="1:6">
+      <c r="F102" s="8">
+        <v>5</v>
+      </c>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" ht="15.15" spans="1:7">
       <c r="A103" s="7" t="s">
         <v>408</v>
       </c>
@@ -4389,11 +4484,12 @@
       <c r="E103" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" ht="15.15" spans="1:6">
+      <c r="F103" s="8">
+        <v>7</v>
+      </c>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" ht="15.15" spans="1:7">
       <c r="A104" s="7" t="s">
         <v>413</v>
       </c>
@@ -4401,7 +4497,7 @@
         <v>414</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>415</v>
@@ -4409,19 +4505,20 @@
       <c r="E104" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F104" s="8">
+        <v>2</v>
+      </c>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" ht="15.15" spans="1:6">
       <c r="A105" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>418</v>
@@ -4429,8 +4526,8 @@
       <c r="E105" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>11</v>
+      <c r="F105" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="106" ht="15.15" spans="1:6">
@@ -4438,22 +4535,22 @@
         <v>420</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" ht="15.15" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" ht="15.15" spans="1:7">
       <c r="A107" s="7" t="s">
         <v>421</v>
       </c>
@@ -4469,9 +4566,10 @@
       <c r="E107" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F107" s="8">
+        <v>7</v>
+      </c>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" ht="15.15" spans="1:6">
       <c r="A108" s="7" t="s">
@@ -4483,17 +4581,17 @@
       <c r="C108" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" ht="15.15" spans="1:6">
+      <c r="D108" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" ht="15.15" spans="1:7">
       <c r="A109" s="7" t="s">
         <v>427</v>
       </c>
@@ -4501,87 +4599,83 @@
         <v>258</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="F109" s="8">
+        <v>5</v>
+      </c>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" ht="15.15" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>431</v>
+        <v>55</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" ht="16.8" spans="1:6">
+        <v>434</v>
+      </c>
+      <c r="F111" s="8">
+        <v>5</v>
+      </c>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" ht="16.8" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" ht="16.8" spans="4:5">
-      <c r="D114" s="15"/>
-      <c r="E114" s="14"/>
-    </row>
-    <row r="115" spans="5:5">
-      <c r="E115" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F112" s="8">
+        <v>3</v>
+      </c>
+      <c r="G112" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F115">
+  <autoFilter ref="A1:F112">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:F113">
@@ -4591,6 +4685,7 @@
     <hyperlink ref="E61" r:id="rId1" display="st060046@student.spbu.ru" tooltip="mailto:st060046@student.spbu.ru"/>
     <hyperlink ref="E111" r:id="rId2" display="st087842@student.spbu.ru"/>
     <hyperlink ref="E112" r:id="rId3" display="st068842@student.spbu.ru"/>
+    <hyperlink ref="E109" r:id="rId4" display="st113671@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>

--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="439">
   <si>
     <t>Family</t>
   </si>
@@ -1341,10 +1341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1403,9 +1403,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1418,8 +1417,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1448,29 +1456,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1487,16 +1472,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1510,9 +1496,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1527,6 +1520,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1547,7 +1547,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,91 +1685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,13 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,61 +1715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,21 +1817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1858,17 +1843,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1888,11 +1867,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,52 +1910,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2323,9 +2323,9 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" ht="15.15" spans="1:6">
+    <row r="108" spans="1:6">
       <c r="A108" s="7" t="s">
         <v>425</v>
       </c>
@@ -4587,8 +4587,8 @@
       <c r="E108" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>173</v>
+      <c r="F108" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="109" ht="15.15" spans="1:7">

--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -1343,8 +1343,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1403,6 +1403,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1419,54 +1427,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1489,6 +1450,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1496,8 +1480,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1512,6 +1505,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -1519,7 +1519,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1547,7 +1547,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,13 +1625,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,49 +1709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,103 +1727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,16 +1803,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,30 +1849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1878,6 +1860,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1900,6 +1891,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1908,54 +1908,54 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2323,9 +2323,9 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" ht="15.15" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>204</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>207</v>
       </c>
       <c r="F47" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="8"/>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" ht="15.15" spans="1:6">
       <c r="A108" s="7" t="s">
         <v>425</v>
       </c>

--- a/data/Classess_2022_biology.xlsx
+++ b/data/Classess_2022_biology.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="443">
   <si>
     <t>Family</t>
   </si>
@@ -1300,6 +1300,12 @@
     <t>Марк</t>
   </si>
   <si>
+    <t>st113681</t>
+  </si>
+  <si>
+    <t>st113681@student.spbu.ru</t>
+  </si>
+  <si>
     <t>Джеус</t>
   </si>
   <si>
@@ -1310,6 +1316,12 @@
   </si>
   <si>
     <t>Куликова</t>
+  </si>
+  <si>
+    <t>st113500</t>
+  </si>
+  <si>
+    <t>st113500@student.spbu.ru</t>
   </si>
   <si>
     <t>Усачева</t>
@@ -1341,10 +1353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1404,15 +1416,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1427,23 +1440,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1457,6 +1454,20 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1466,7 +1477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1481,8 +1492,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1496,9 +1522,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1506,27 +1539,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1547,13 +1559,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1601,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,73 +1679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,25 +1709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,31 +1721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,7 +1739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,23 +1814,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1834,6 +1831,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1845,6 +1857,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,22 +1889,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1891,73 +1897,79 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1987,6 +1999,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2323,9 +2336,9 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3301,7 +3314,7 @@
       </c>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" ht="15.15" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>204</v>
       </c>
@@ -4582,10 +4595,10 @@
         <v>222</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>173</v>
+        <v>427</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="F108" s="1">
         <v>7</v>
@@ -4593,7 +4606,7 @@
     </row>
     <row r="109" ht="15.15" spans="1:7">
       <c r="A109" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>258</v>
@@ -4602,10 +4615,10 @@
         <v>138</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F109" s="8">
         <v>5</v>
@@ -4614,7 +4627,7 @@
     </row>
     <row r="110" ht="15.15" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>12</v>
@@ -4623,10 +4636,10 @@
         <v>125</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>173</v>
+        <v>433</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>173</v>
@@ -4634,19 +4647,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D111" s="13" t="s">
-        <v>433</v>
+      <c r="D111" s="14" t="s">
+        <v>437</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F111" s="8">
         <v>5</v>
@@ -4655,19 +4668,19 @@
     </row>
     <row r="112" ht="16.8" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>438</v>
+      <c r="D112" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="F112" s="8">
         <v>3</v>
@@ -4686,6 +4699,8 @@
     <hyperlink ref="E111" r:id="rId2" display="st087842@student.spbu.ru"/>
     <hyperlink ref="E112" r:id="rId3" display="st068842@student.spbu.ru"/>
     <hyperlink ref="E109" r:id="rId4" display="st113671@student.spbu.ru"/>
+    <hyperlink ref="E108" r:id="rId5" display="st113681@student.spbu.ru"/>
+    <hyperlink ref="E110" r:id="rId6" display="st113500@student.spbu.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" fitToWidth="0" fitToHeight="0" orientation="portrait" errors="blank" horizontalDpi="600" verticalDpi="600"/>
